--- a/bangkit_ai/dataset_baby/BB-PB pr 0-2 thn.xlsx
+++ b/bangkit_ai/dataset_baby/BB-PB pr 0-2 thn.xlsx
@@ -2,121 +2,55 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db6f9826e2b3023b/Documents/BANGKIT-MACHINE LEARNING/capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\bangkit_dicoding\Machine-Learning\data\datasetbaby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C1A2D5BB-E55B-482A-B723-B33692390896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAC27B95-3933-47A1-8521-E8ED81C174A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76841FB-8DAB-4533-B8B0-5E739A31FCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ABF7FA22-7445-45EA-ABC2-27C12866B181}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-3 SD</t>
-    </r>
+    <t>Tinggi Badan</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-2 SD</t>
-    </r>
+    <t>-3 SD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-1 SD</t>
-    </r>
+    <t>-2 SD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Median</t>
-    </r>
+    <t>-1 SD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>+1 SD</t>
-    </r>
+    <t>Median</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>+2 SD</t>
-    </r>
+    <t>+1 SD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>+3 SD</t>
-    </r>
+    <t>+2 SD</t>
   </si>
   <si>
-    <t>Tinggi Badan</t>
+    <t>+3 SD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,21 +59,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -152,21 +74,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,16 +106,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -197,41 +123,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -254,44 +160,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -318,32 +224,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -370,24 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,3589 +269,5952 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC22785-2E7B-407A-9254-9AA60E0C8089}">
-  <dimension ref="A1:H132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B2" s="2">
+        <v>-4.6369535973852196</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-4.8438697893806602</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-5.1245662715545031</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-5.4224638284156264</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-5.7107596795554434</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-6.1196695677275059</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-6.4914624323791799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-4.5710935383770774</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-4.7750906380098268</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-5.0515354541840338</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-5.345191878766987</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-5.6294126500071187</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-6.0325973532199724</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-6.3991946368262322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B4" s="2">
+        <v>-4.5050750432448066</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-4.70612050436592</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-4.9782844229313774</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-5.2676617534408852</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-5.5477601815528148</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-5.9451719568050692</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-6.30651053376344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-4.4388981119884097</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-4.6369593884489388</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-4.9048131777965338</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-5.1898734524373209</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-5.4658022741925327</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-5.8573933784827963</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-6.213410123190803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="B6" s="2">
+        <v>-4.3725627446078859</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-4.5676072902588851</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-4.831121718779503</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-5.1118269757562942</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-5.3835389279262724</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-5.7692616182531564</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-6.1198934051083222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-4.3060689411032351</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-4.4980642097957571</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-4.7572100458802851</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-5.033522323397805</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-5.3009701427540321</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-5.6807766761161442</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-6.0259603795159959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="B8" s="2">
+        <v>-4.2394167014744566</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-4.4283301470595546</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-4.6830781590988808</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-4.9549594953618543</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-5.2180959186758127</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-5.591938552071765</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-5.931611046413825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-4.172606025721552</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-4.3584051020502796</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-4.6087260584352894</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-4.8761384916484403</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-5.1349162556916141</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-5.5027472461200162</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-5.8368454058018093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="B10" s="2">
+        <v>-4.1056369138445206</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-4.2882890747679303</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-4.5341537438895099</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-4.7970593122575638</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-5.0514311538014374</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-5.4132027582608977</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-5.7416634576799499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-4.0385093658433613</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-4.2179820652125066</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-4.4593612154615441</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-4.7177219571892257</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-4.9676406130052806</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-5.3233050884944104</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-5.6460652020482449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="B12" s="2">
+        <v>-3.9712233817180751</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-4.1474840733840104</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-4.3843484731513911</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-4.6381264264434243</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-4.8835446333031456</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-5.2330542368205526</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-5.5500506389066953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-3.903778961468662</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-4.0767950992824398</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-4.3091155169590518</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-4.5582727200201614</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-4.7991432146950324</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-5.1424502032393278</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-5.4536197682553009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="B14" s="2">
+        <v>-3.836176105095122</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-4.0059151429077957</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-4.2336623468845236</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-4.4781608379194351</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-4.71443635718094</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-5.0514929877507333</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-5.3567725900940619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-3.7684148125974541</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-3.9348442042600782</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-4.1579889629278108</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-4.3977907801412464</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-4.6294240607608694</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-4.9601825903547692</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-5.2595091044229791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-3.7004950839756598</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-3.8635822833392859</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-4.08209536508891</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-4.3171625466855961</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-4.5441063254348171</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-4.8685190110514363</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-5.1618293112420508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>7.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-3.6324169192297391</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-3.792129380145421</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-4.0059815533678211</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-4.2362761375524833</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-4.4584831512027874</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-4.7765022498407337</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-5.0637332105512787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-3.5641803183596901</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-3.7204854946784822</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-3.9296475277645468</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-4.1551315527419082</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-4.3725545380647786</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-4.6841323067226623</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-4.965220802350661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-3.495785281365515</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-3.64865062693847</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-3.853093288279084</v>
+      </c>
+      <c r="E19" s="5">
+        <v>-4.0737287922538696</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-4.2863204860207924</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-4.5914091816972213</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-4.8662920866401986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-3.4272318082472122</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-3.5766247769253829</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-3.7763188349114349</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-3.99206785608837</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-4.1997809950708236</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-4.4983328747644116</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-4.7669470634198916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>9.5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-3.358519899004782</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-3.5044079446392229</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-3.6993241676615991</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-3.910148744245407</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-4.1129360652148792</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-4.4049033859242321</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-4.6671857326897408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-3.2896495536382262</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-3.4320001300799898</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-3.6221092865295761</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-3.8279714567249821</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-4.0257856964529548</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-4.3111207151766848</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-4.5670080944497453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10.5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-3.2206207721475431</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-3.359401333247682</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-3.544674191515365</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-3.7455359935270942</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-3.9383298887850509</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4.216984862521767</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-4.4664141486999043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-3.1514335545327321</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-3.2866115541423011</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-3.4670188826189681</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-3.6628423546517439</v>
+      </c>
+      <c r="F24" s="4">
+        <v>-3.8505686422111691</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-4.1224958279594803</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-4.3654038954402186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>11.5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-3.0820879007937938</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-3.2136307927638459</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-3.389143359840384</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-3.579890540098932</v>
+      </c>
+      <c r="F25" s="4">
+        <v>-3.7625019567313069</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-4.0276536114898249</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-4.2639773346706891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-3.012583810930729</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-3.1404590491123181</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-3.3110476231796122</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-3.4966805498686582</v>
+      </c>
+      <c r="F26" s="4">
+        <v>-3.674129832345467</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-3.932458213112799</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-4.1621344663913149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>12.5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-2.9429212849435382</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-3.0670963231877151</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-3.2327316726366542</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-3.413212383960921</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-3.585452269053647</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-3.836909632828406</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-4.0598752906020952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-2.8731003228322192</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-2.993542614990039</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-3.1541955082115081</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-3.3294860423757209</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-3.4964692668558488</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-3.7410078706366421</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-3.9571998073030308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>13.5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-2.8031209245967732</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-2.91979792451929</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-3.0754391299041761</v>
+      </c>
+      <c r="E29" s="5">
+        <v>-3.2455015251130588</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-3.407180825752071</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-3.6447529265375098</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-3.854108016494123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-2.7329830902371999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-2.8458622517754661</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-2.9964625377146561</v>
+      </c>
+      <c r="E30" s="5">
+        <v>-3.1612588321729351</v>
+      </c>
+      <c r="F30" s="4">
+        <v>-3.3175869457423151</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-3.5481448005310079</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-3.7505999181753689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>14.5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-2.662686819753501</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-2.7717355967585688</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-2.9172657316429489</v>
+      </c>
+      <c r="E31" s="5">
+        <v>-3.0767579635553481</v>
+      </c>
+      <c r="F31" s="4">
+        <v>-3.2276876268265799</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-3.4511834926171372</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-3.6466755123467709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-2.5922321131456729</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-2.6974179594685981</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-2.8378487116890558</v>
+      </c>
+      <c r="E32" s="5">
+        <v>-2.9919989192602992</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-3.1374828690048662</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3.3538690027958968</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-3.5423347990083291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>15.5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-2.5216189704137189</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-2.6229093399055539</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-2.7582114778529752</v>
+      </c>
+      <c r="E33" s="5">
+        <v>-2.9069816992877868</v>
+      </c>
+      <c r="F33" s="4">
+        <v>-3.0469726722771728</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-3.2562013310672882</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-3.4375777781600418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-2.4508473915576379</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-2.5482097380694348</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-2.6783540301347069</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-2.8217063036378129</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-2.9561570366435008</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-3.1581804774313098</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-3.3324044498019099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>16.5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-2.37991737657743</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-2.4733191539602428</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-2.5982763685342518</v>
+      </c>
+      <c r="E35" s="5">
+        <v>-2.7361727323103771</v>
+      </c>
+      <c r="F35" s="4">
+        <v>-2.8650359621038501</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-3.0598064418879631</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-3.2268148139339332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-2.3088289254730952</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-2.3982375875779778</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-2.5179784930516109</v>
+      </c>
+      <c r="E36" s="5">
+        <v>-2.6503809853054778</v>
+      </c>
+      <c r="F36" s="4">
+        <v>-2.7736094486582199</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-2.961079224437245</v>
+      </c>
+      <c r="H36" s="2">
+        <v>-3.1208088705561119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>17.5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-2.237582038244633</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-2.3229650389226379</v>
+      </c>
+      <c r="D37" s="4">
+        <v>-2.437460403686782</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-2.5643310626231171</v>
+      </c>
+      <c r="F37" s="4">
+        <v>-2.681877496306611</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-2.8619988250791599</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-3.0143866196684459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-2.1661767148920439</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-2.2475015079942251</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-2.3567221004397649</v>
+      </c>
+      <c r="E38" s="5">
+        <v>-2.4780229642632938</v>
+      </c>
+      <c r="F38" s="4">
+        <v>-2.589840105049023</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-2.7625652438137052</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-2.9075480612709361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>18.5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-2.094612955415327</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-2.1718469947927379</v>
+      </c>
+      <c r="D39" s="4">
+        <v>-2.2757635833105629</v>
+      </c>
+      <c r="E39" s="5">
+        <v>-2.3914566902260082</v>
+      </c>
+      <c r="F39" s="4">
+        <v>-2.4974972748854558</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-2.6627784806408812</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-2.8002931953635799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-2.0228907598144841</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-2.0960014993181781</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-2.1945848522991729</v>
+      </c>
+      <c r="E40" s="5">
+        <v>-2.30463224051126</v>
+      </c>
+      <c r="F40" s="4">
+        <v>-2.40484900581591</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-2.562638535560688</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-2.6926220219463808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>19.5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-1.951010128089514</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-2.019965021570544</v>
+      </c>
+      <c r="D41" s="4">
+        <v>-2.1131859074055961</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-2.217549615119049</v>
+      </c>
+      <c r="F41" s="4">
+        <v>-2.3118952978403851</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-2.4621454085731251</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-2.584534541019337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-1.878971060240417</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-1.943737561549836</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-2.0315667486298321</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-2.130208814049376</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-2.218636150958881</v>
+      </c>
+      <c r="G42" s="3">
+        <v>-2.3612990996781931</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-2.4760307525824481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>20.5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-1.806773556267192</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-1.8673191192560541</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-1.9497273759718809</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-2.0426098373022401</v>
+      </c>
+      <c r="F43" s="4">
+        <v>-2.1250715651713978</v>
+      </c>
+      <c r="G43" s="3">
+        <v>-2.2600996088758918</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-2.3671106566357132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-1.734417616169841</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-1.7907096946891989</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-1.8676677894317419</v>
+      </c>
+      <c r="E44" s="5">
+        <v>-1.954752684877642</v>
+      </c>
+      <c r="F44" s="4">
+        <v>-2.031201540477936</v>
+      </c>
+      <c r="G44" s="3">
+        <v>-2.1585469361662222</v>
+      </c>
+      <c r="H44" s="2">
+        <v>-2.2577742531791349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>21.5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-1.661903239948362</v>
+      </c>
+      <c r="C45" s="3">
+        <v>-1.713909287849269</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-1.7853879890094171</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-1.866637356775581</v>
+      </c>
+      <c r="F45" s="4">
+        <v>-1.9370260768784959</v>
+      </c>
+      <c r="G45" s="3">
+        <v>-2.0566410815491829</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-2.148021542212712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-1.5892304276027569</v>
+      </c>
+      <c r="C46" s="3">
+        <v>-1.6369178987362669</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-1.702887974704905</v>
+      </c>
+      <c r="E46" s="5">
+        <v>-1.778263852996059</v>
+      </c>
+      <c r="F46" s="4">
+        <v>-1.8425451743730761</v>
+      </c>
+      <c r="G46" s="3">
+        <v>-1.954382045024774</v>
+      </c>
+      <c r="H46" s="2">
+        <v>-2.037852523736444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>22.5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-1.516399179133024</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-1.5597355273501901</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-1.6201677465182049</v>
+      </c>
+      <c r="E47" s="5">
+        <v>-1.6896321735390729</v>
+      </c>
+      <c r="F47" s="4">
+        <v>-1.747758832961678</v>
+      </c>
+      <c r="G47" s="3">
+        <v>-1.8517698265929969</v>
+      </c>
+      <c r="H47" s="2">
+        <v>-1.927267197750332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-1.443409494539164</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-1.48236217369104</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-1.537227304449319</v>
+      </c>
+      <c r="E48" s="5">
+        <v>-1.6007423184046261</v>
+      </c>
+      <c r="F48" s="4">
+        <v>-1.6526670526442999</v>
+      </c>
+      <c r="G48" s="3">
+        <v>-1.74880442625385</v>
+      </c>
+      <c r="H48" s="2">
+        <v>-1.816265564254375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>23.5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-1.370261373821178</v>
+      </c>
+      <c r="C49" s="3">
+        <v>-1.4047978377588159</v>
+      </c>
+      <c r="D49" s="4">
+        <v>-1.454066648498245</v>
+      </c>
+      <c r="E49" s="5">
+        <v>-1.511594287592716</v>
+      </c>
+      <c r="F49" s="4">
+        <v>-1.557269833420944</v>
+      </c>
+      <c r="G49" s="3">
+        <v>-1.6454858440073341</v>
+      </c>
+      <c r="H49" s="2">
+        <v>-1.704847623248573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-1.2969548169790639</v>
+      </c>
+      <c r="C50" s="3">
+        <v>-1.3270425195535189</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-1.3706857786649851</v>
+      </c>
+      <c r="E50" s="5">
+        <v>-1.4221880811033429</v>
+      </c>
+      <c r="F50" s="4">
+        <v>-1.461567175291608</v>
+      </c>
+      <c r="G50" s="3">
+        <v>-1.541814079853449</v>
+      </c>
+      <c r="H50" s="2">
+        <v>-1.593013374732926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>24.5</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-1.223489824012824</v>
+      </c>
+      <c r="C51" s="3">
+        <v>-1.249096219075148</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-1.287084694949538</v>
+      </c>
+      <c r="E51" s="5">
+        <v>-1.332523698936509</v>
+      </c>
+      <c r="F51" s="4">
+        <v>-1.365559078256293</v>
+      </c>
+      <c r="G51" s="3">
+        <v>-1.437789133792196</v>
+      </c>
+      <c r="H51" s="2">
+        <v>-1.480762818707436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2">
+        <v>-1.1498663949224559</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-1.1709589363237021</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-1.2032633973519029</v>
+      </c>
+      <c r="E52" s="5">
+        <v>-1.2426011410922111</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-1.269245542315</v>
+      </c>
+      <c r="G52" s="3">
+        <v>-1.333411005823572</v>
+      </c>
+      <c r="H52" s="2">
+        <v>-1.3680959551720999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>25.5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-1.0760845297079611</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-1.092630671299184</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-1.1192218858720819</v>
+      </c>
+      <c r="E53" s="5">
+        <v>-1.1524204075704509</v>
+      </c>
+      <c r="F53" s="4">
+        <v>-1.1726265674677281</v>
+      </c>
+      <c r="G53" s="3">
+        <v>-1.2286796959475781</v>
+      </c>
+      <c r="H53" s="2">
+        <v>-1.255012784126919</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-1.0021442283693389</v>
+      </c>
+      <c r="C54" s="3">
+        <v>-1.0141114240015909</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-1.0349601605100729</v>
+      </c>
+      <c r="E54" s="5">
+        <v>-1.061981498371229</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-1.075702153714476</v>
+      </c>
+      <c r="G54" s="3">
+        <v>-1.1235952041642161</v>
+      </c>
+      <c r="H54" s="2">
+        <v>-1.141513305571894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>26.5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-0.9280454909065905</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-0.93540119443092529</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-0.95047822126587711</v>
+      </c>
+      <c r="E55" s="5">
+        <v>-0.97128441349454508</v>
+      </c>
+      <c r="F55" s="4">
+        <v>-0.97847230105524563</v>
+      </c>
+      <c r="G55" s="3">
+        <v>-1.018157530473486</v>
+      </c>
+      <c r="H55" s="2">
+        <v>-1.027597519507025</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-0.85378831731971427</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-0.85649998258718529</v>
+      </c>
+      <c r="D56" s="4">
+        <v>-0.86577606813949437</v>
+      </c>
+      <c r="E56" s="5">
+        <v>-0.88032915294039782</v>
+      </c>
+      <c r="F56" s="4">
+        <v>-0.88093700949003662</v>
+      </c>
+      <c r="G56" s="3">
+        <v>-0.91236667487538536</v>
+      </c>
+      <c r="H56" s="2">
+        <v>-0.91326542593231075</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>27.5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-0.77937270760871158</v>
+      </c>
+      <c r="C57" s="3">
+        <v>-0.77740778847037184</v>
+      </c>
+      <c r="D57" s="4">
+        <v>-0.78085370113092445</v>
+      </c>
+      <c r="E57" s="5">
+        <v>-0.78911571670878899</v>
+      </c>
+      <c r="F57" s="4">
+        <v>-0.78309627901884848</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-0.80622263736991595</v>
+      </c>
+      <c r="H57" s="2">
+        <v>-0.79851702484775178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-0.70479866177358153</v>
+      </c>
+      <c r="C58" s="3">
+        <v>-0.69812461208048404</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-0.69571112024016823</v>
+      </c>
+      <c r="E58" s="5">
+        <v>-0.69764410479971772</v>
+      </c>
+      <c r="F58" s="4">
+        <v>-0.68495010964168124</v>
+      </c>
+      <c r="G58" s="3">
+        <v>-0.69972541795707777</v>
+      </c>
+      <c r="H58" s="2">
+        <v>-0.68335231625334814</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>28.5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-0.63006617981432456</v>
+      </c>
+      <c r="C59" s="3">
+        <v>-0.61865045341752367</v>
+      </c>
+      <c r="D59" s="4">
+        <v>-0.61034832546722395</v>
+      </c>
+      <c r="E59" s="5">
+        <v>-0.60591431721318312</v>
+      </c>
+      <c r="F59" s="4">
+        <v>-0.58649850135853487</v>
+      </c>
+      <c r="G59" s="3">
+        <v>-0.59287501663686992</v>
+      </c>
+      <c r="H59" s="2">
+        <v>-0.56777130014909893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-0.55517526173094023</v>
+      </c>
+      <c r="C60" s="3">
+        <v>-0.53898531248148895</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-0.52476531681209337</v>
+      </c>
+      <c r="E60" s="5">
+        <v>-0.51392635394918695</v>
+      </c>
+      <c r="F60" s="4">
+        <v>-0.48774145416940939</v>
+      </c>
+      <c r="G60" s="3">
+        <v>-0.48567143340929331</v>
+      </c>
+      <c r="H60" s="2">
+        <v>-0.45177397653500589</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>29.5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-0.48012590752342899</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-0.45912918927237989</v>
+      </c>
+      <c r="D61" s="4">
+        <v>-0.43896209427477562</v>
+      </c>
+      <c r="E61" s="5">
+        <v>-0.42168021500772829</v>
+      </c>
+      <c r="F61" s="4">
+        <v>-0.38867896807430569</v>
+      </c>
+      <c r="G61" s="3">
+        <v>-0.37811466827434792</v>
+      </c>
+      <c r="H61" s="2">
+        <v>-0.33536034541106829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-0.40491811719179083</v>
+      </c>
+      <c r="C62" s="3">
+        <v>-0.37908208379019831</v>
+      </c>
+      <c r="D62" s="4">
+        <v>-0.35293865785526979</v>
+      </c>
+      <c r="E62" s="5">
+        <v>-0.3291759003888064</v>
+      </c>
+      <c r="F62" s="4">
+        <v>-0.28931104307322197</v>
+      </c>
+      <c r="G62" s="3">
+        <v>-0.27020472123203199</v>
+      </c>
+      <c r="H62" s="2">
+        <v>-0.21853040677728691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>30.5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-0.32955189073602581</v>
+      </c>
+      <c r="C63" s="3">
+        <v>-0.29884399603494233</v>
+      </c>
+      <c r="D63" s="4">
+        <v>-0.26669500755357861</v>
+      </c>
+      <c r="E63" s="5">
+        <v>-0.23641341009242289</v>
+      </c>
+      <c r="F63" s="4">
+        <v>-0.18963767916616089</v>
+      </c>
+      <c r="G63" s="3">
+        <v>-0.16194159228234731</v>
+      </c>
+      <c r="H63" s="2">
+        <v>-0.1012841606336599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>31</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-0.25402722815613382</v>
+      </c>
+      <c r="C64" s="3">
+        <v>-0.2184149260066128</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-0.18023114336969931</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-0.14339274411857689</v>
+      </c>
+      <c r="F64" s="4">
+        <v>-8.9658876353118977E-2</v>
+      </c>
+      <c r="G64" s="3">
+        <v>-5.3325281425293802E-2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1.637839301981181E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>31.5</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-0.178344129452114</v>
+      </c>
+      <c r="C65" s="3">
+        <v>-0.1377948737052099</v>
+      </c>
+      <c r="D65" s="4">
+        <v>-9.354706530363277E-2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>-5.0113902467268552E-2</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1.062536536590031E-2</v>
+      </c>
+      <c r="G65" s="3">
+        <v>5.5644211339128453E-2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.13445725418312809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-0.1025025946239682</v>
+      </c>
+      <c r="C66" s="3">
+        <v>-5.6983839130732683E-2</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-6.6427733553799939E-3</v>
+      </c>
+      <c r="E66" s="5">
+        <v>4.3423114861502299E-2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.1112150459908996</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.16496688601092041</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.25295242285628922</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>32.5</v>
+      </c>
+      <c r="B67" s="2">
+        <v>-2.650262367169454E-2</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2.401817771681802E-2</v>
+      </c>
+      <c r="D67" s="4">
+        <v>8.0481732475059964E-2</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.13721830786773559</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.212110165521878</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.27464274259008192</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.37186389903929479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>33</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4.9655783404705112E-2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.1052111768374431</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.16782645218768799</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.2312716765514313</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.31331072395883458</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.38467178107661137</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.4911916827321452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>33.5</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.12597262660523259</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.18659515823113981</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.25539138578250142</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.32558322091258951</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.41481672130177039</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.49505400147051137</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.61093577393484022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.2024479059298869</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.26817012189791178</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.34317653325950292</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.42015294095121009</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.51662815755068525</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.60578940377178014</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.73109617264737992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>34.5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.2790816213786691</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.3499360678377581</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.43118189461869161</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.51498083666729233</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.61874503270557923</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0.71687798798041769</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.85167287886976339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>35</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.35587377295157818</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.43189299605067699</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.51940746986006658</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.61006690806083785</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.72116734676645144</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.828319754096424</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.97266589260199243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>35.5</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.43282436064861329</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.51404090653667023</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.60785325898362874</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.70541115513184582</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0.82389509973330366</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.94011470211980086</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1.0940752138440659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>36</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.50993338446977621</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.59637979929573603</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.69651926198937897</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.80101357788031535</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0.92692829160613321</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1.052262832050546</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1.2159008425959841</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>36.5</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.58720084441506515</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.67890967432787619</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.78540547887731549</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.89687417630624822</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1.0302669223849441</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1.16476414388866</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1.3381427788577469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>37</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.66462674048448189</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.76163053163309069</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.8745119096474383</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.99299295040964353</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1.133910992069731</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1.2776186376341441</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1.460801022629354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>37.5</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.74221107267802555</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.84454237121137865</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.96383855429975007</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1.0893699001905</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1.2378605006604999</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1.3908263132869969</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1.5838755739108079</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.81995384099569701</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.92764519306274007</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1.053385412834247</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1.186005025648821</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1.3421154481572459</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1.504387170847219</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1.7073664327021021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>38.5</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.8978550454374945</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1.0109389971871749</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1.143152485250932</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1.2828983267846019</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1.4466758345599711</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1.61830121031481</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1.8312735990032449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>39</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.9759146860034198</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1.094423783584684</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1.233139771549804</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1.380049803597847</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1.551541659868676</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1.73256843168977</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1.95559707281423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>39.5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1.0541327626934709</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1.1780995522552671</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1.3233472717308621</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1.4774594560885539</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1.65671292408336</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1.8471888349721</v>
+      </c>
+      <c r="H81" s="2">
+        <v>2.0803368541350622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>40</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1.13250927550765</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1.261966303198923</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1.413774985794108</v>
+      </c>
+      <c r="E82" s="5">
+        <v>1.575127284256723</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1.7621896272040209</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1.962162420161798</v>
+      </c>
+      <c r="H82" s="2">
+        <v>2.2054929429657371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>40.5</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1.2110442244459561</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1.346024036415653</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1.5044229137395411</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1.6730532881023561</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1.867971769230663</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2.0774891872588661</v>
+      </c>
+      <c r="H83" s="2">
+        <v>2.331065339306257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>41</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1.289737609508389</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1.430272751905457</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1.5952910555671611</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1.7712374676254501</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1.9740593501632839</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2.1931691362633039</v>
+      </c>
+      <c r="H84" s="2">
+        <v>2.457054043156623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>41.5</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1.3685894306949491</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1.514712449668334</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1.6863794112769681</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1.869679822826007</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2.0804523700018831</v>
+      </c>
+      <c r="G85" s="3">
+        <v>2.30920226717511</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2.583459054516831</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>42</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1.4475996880056361</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1.599343129704285</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1.7776879808689621</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1.9683803537040261</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2.1871508287464621</v>
+      </c>
+      <c r="G86" s="3">
+        <v>2.4255885799942849</v>
+      </c>
+      <c r="H86" s="2">
+        <v>2.710280373386885</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>42.5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1.5267683814404509</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1.68416479201331</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1.869216764343143</v>
+      </c>
+      <c r="E87" s="5">
+        <v>2.0673390602595072</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2.2941547263970179</v>
+      </c>
+      <c r="G87" s="3">
+        <v>2.5423280747208299</v>
+      </c>
+      <c r="H87" s="2">
+        <v>2.8375179997667832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>43</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1.606095510999392</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1.7691774365954089</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1.96096576169951</v>
+      </c>
+      <c r="E88" s="5">
+        <v>2.166555942492451</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2.4014640629535542</v>
+      </c>
+      <c r="G88" s="3">
+        <v>2.6594207513547432</v>
+      </c>
+      <c r="H88" s="2">
+        <v>2.9651719336565279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>43.5</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1.6855810766824599</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1.85438106345058</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2.052934972938067</v>
+      </c>
+      <c r="E89" s="5">
+        <v>2.2660310004028572</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2.50907883841607</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2.7768666098960249</v>
+      </c>
+      <c r="H89" s="2">
+        <v>3.093242175056115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>44</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1.7652250784896559</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1.939775672578826</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2.1451243980588082</v>
+      </c>
+      <c r="E90" s="5">
+        <v>2.3657642339907259</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2.6169990527845641</v>
+      </c>
+      <c r="G90" s="3">
+        <v>2.894665650344677</v>
+      </c>
+      <c r="H90" s="2">
+        <v>3.2217287239655481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>44.5</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1.8450275164209771</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2.0253612639801459</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2.2375340370617369</v>
+      </c>
+      <c r="E91" s="5">
+        <v>2.4657556432560561</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2.725224706059036</v>
+      </c>
+      <c r="G91" s="3">
+        <v>3.0128178727006989</v>
+      </c>
+      <c r="H91" s="2">
+        <v>3.350631580384825</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>45</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B92" s="2">
         <v>1.9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C92" s="3">
         <v>2.1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D92" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E92" s="5">
         <v>2.5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F92" s="4">
         <v>2.7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G92" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H92" s="2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>45.5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B93" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C93" s="3">
         <v>2.1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D93" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E93" s="5">
         <v>2.5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F93" s="4">
         <v>2.8</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G93" s="3">
         <v>3.1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H93" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>46</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B94" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C94" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D94" s="4">
         <v>2.4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E94" s="5">
         <v>2.6</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F94" s="4">
         <v>2.9</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G94" s="3">
         <v>3.2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H94" s="2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>46.5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B95" s="2">
         <v>2.1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C95" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D95" s="4">
         <v>2.5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E95" s="5">
         <v>2.7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F95" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G95" s="3">
         <v>3.3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H95" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>47</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B96" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C96" s="3">
         <v>2.4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D96" s="4">
         <v>2.6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E96" s="5">
         <v>2.8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F96" s="4">
         <v>3.1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G96" s="3">
         <v>3.4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H96" s="2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>47.5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B97" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C97" s="3">
         <v>2.4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D97" s="4">
         <v>2.6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E97" s="5">
         <v>2.9</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F97" s="4">
         <v>3.2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G97" s="3">
         <v>3.5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H97" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>48</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B98" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C98" s="3">
         <v>2.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D98" s="4">
         <v>2.7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E98" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F98" s="4">
         <v>3.3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G98" s="3">
         <v>3.6</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H98" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>48.5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B99" s="2">
         <v>2.4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C99" s="3">
         <v>2.6</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D99" s="4">
         <v>2.8</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E99" s="5">
         <v>3.1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F99" s="4">
         <v>3.4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G99" s="3">
         <v>3.7</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H99" s="2">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>49</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B100" s="2">
         <v>2.4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C100" s="3">
         <v>2.6</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D100" s="4">
         <v>2.9</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E100" s="5">
         <v>3.2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F100" s="4">
         <v>3.5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G100" s="3">
         <v>3.8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H100" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>49.5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B101" s="2">
         <v>2.5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C101" s="3">
         <v>2.7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D101" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E101" s="5">
         <v>3.3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F101" s="4">
         <v>3.6</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G101" s="3">
         <v>3.9</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H101" s="2">
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>50</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B102" s="2">
         <v>2.6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C102" s="3">
         <v>2.8</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D102" s="4">
         <v>3.1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E102" s="5">
         <v>3.4</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F102" s="4">
         <v>3.7</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G102" s="3">
         <v>4</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H102" s="2">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>50.5</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B103" s="2">
         <v>2.7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C103" s="3">
         <v>2.9</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D103" s="4">
         <v>3.2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E103" s="5">
         <v>3.5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F103" s="4">
         <v>3.8</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G103" s="3">
         <v>4.2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H103" s="2">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>51</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B104" s="2">
         <v>2.8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C104" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D104" s="4">
         <v>3.3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E104" s="5">
         <v>3.6</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F104" s="4">
         <v>3.9</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G104" s="3">
         <v>4.3</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H104" s="2">
         <v>4.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>51.5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B105" s="2">
         <v>2.8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C105" s="3">
         <v>3.1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D105" s="4">
         <v>3.4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E105" s="5">
         <v>3.7</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F105" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G105" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H105" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>52</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B106" s="2">
         <v>2.9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C106" s="3">
         <v>3.2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D106" s="4">
         <v>3.5</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E106" s="5">
         <v>3.8</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F106" s="4">
         <v>4.2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G106" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H106" s="2">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>52.5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B107" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C107" s="3">
         <v>3.3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D107" s="4">
         <v>3.6</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E107" s="5">
         <v>3.9</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F107" s="4">
         <v>4.3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G107" s="3">
         <v>4.7</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H107" s="2">
         <v>5.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>53</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B108" s="2">
         <v>3.1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C108" s="3">
         <v>3.4</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D108" s="4">
         <v>3.7</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E108" s="5">
         <v>4</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F108" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G108" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H108" s="2">
         <v>5.4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>53.5</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B109" s="2">
         <v>3.2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C109" s="3">
         <v>3.5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D109" s="4">
         <v>3.8</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E109" s="5">
         <v>4.2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F109" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G109" s="3">
         <v>5</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H109" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>54</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B110" s="2">
         <v>3.3</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C110" s="3">
         <v>3.6</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D110" s="4">
         <v>3.9</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E110" s="5">
         <v>4.3</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F110" s="4">
         <v>4.7</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G110" s="3">
         <v>5.2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H110" s="2">
         <v>5.7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
         <v>54.5</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B111" s="2">
         <v>3.4</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C111" s="3">
         <v>3.7</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D111" s="4">
         <v>4</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E111" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F111" s="4">
         <v>4.8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G111" s="3">
         <v>5.3</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H111" s="2">
         <v>5.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
         <v>55</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B112" s="2">
         <v>3.5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C112" s="3">
         <v>3.8</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D112" s="4">
         <v>4.2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E112" s="5">
         <v>4.5</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F112" s="4">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G112" s="3">
         <v>5.5</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H112" s="2">
         <v>6.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
         <v>55.5</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B113" s="2">
         <v>3.6</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C113" s="3">
         <v>3.9</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D113" s="4">
         <v>4.3</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E113" s="5">
         <v>4.7</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F113" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G113" s="3">
         <v>5.7</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H113" s="2">
         <v>6.3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114">
         <v>56</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B114" s="2">
         <v>3.7</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C114" s="3">
         <v>4</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D114" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E114" s="5">
         <v>4.8</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F114" s="4">
         <v>5.3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G114" s="3">
         <v>5.8</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H114" s="2">
         <v>6.4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
         <v>56.5</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B115" s="2">
         <v>3.8</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C115" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D115" s="4">
         <v>4.5</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E115" s="5">
         <v>5</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F115" s="4">
         <v>5.4</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G115" s="3">
         <v>6</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H115" s="2">
         <v>6.6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116">
         <v>57</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B116" s="2">
         <v>3.9</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C116" s="3">
         <v>4.3</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D116" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E116" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F116" s="4">
         <v>5.6</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G116" s="3">
         <v>6.1</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H116" s="2">
         <v>6.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117">
         <v>57.5</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C117" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D117" s="4">
         <v>4.8</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E117" s="5">
         <v>5.2</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F117" s="4">
         <v>5.7</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G117" s="3">
         <v>6.3</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H117" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118">
         <v>58</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B118" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C118" s="3">
         <v>4.5</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D118" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E118" s="5">
         <v>5.4</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F118" s="4">
         <v>5.9</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G118" s="3">
         <v>6.5</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H118" s="2">
         <v>7.1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119">
         <v>58.5</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B119" s="2">
         <v>4.2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C119" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D119" s="4">
         <v>5</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E119" s="5">
         <v>5.5</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F119" s="4">
         <v>6</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G119" s="3">
         <v>6.6</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H119" s="2">
         <v>7.3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120">
         <v>59</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B120" s="2">
         <v>4.3</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C120" s="3">
         <v>4.7</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D120" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E120" s="5">
         <v>5.6</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F120" s="4">
         <v>6.2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G120" s="3">
         <v>6.8</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H120" s="2">
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121">
         <v>59.5</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B121" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C121" s="3">
         <v>4.8</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D121" s="4">
         <v>5.3</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E121" s="5">
         <v>5.7</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F121" s="4">
         <v>6.3</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G121" s="3">
         <v>6.9</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H121" s="2">
         <v>7.7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122">
         <v>60</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B122" s="2">
         <v>4.5</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C122" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D122" s="4">
         <v>5.4</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E122" s="5">
         <v>5.9</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F122" s="4">
         <v>6.4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G122" s="3">
         <v>7.1</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H122" s="2">
         <v>7.8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123">
         <v>60.5</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B123" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C123" s="3">
         <v>5</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D123" s="4">
         <v>5.5</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E123" s="5">
         <v>6</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F123" s="4">
         <v>6.6</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G123" s="3">
         <v>7.3</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H123" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124">
         <v>61</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B124" s="2">
         <v>4.7</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C124" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D124" s="4">
         <v>5.6</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E124" s="5">
         <v>6.1</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F124" s="4">
         <v>6.7</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G124" s="3">
         <v>7.4</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H124" s="2">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>61.5</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B125" s="2">
         <v>4.8</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C125" s="3">
         <v>5.2</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D125" s="4">
         <v>5.7</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E125" s="5">
         <v>6.3</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F125" s="4">
         <v>6.9</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G125" s="3">
         <v>7.6</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H125" s="2">
         <v>8.4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126">
         <v>62</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B126" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C126" s="3">
         <v>5.3</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D126" s="4">
         <v>5.8</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E126" s="5">
         <v>6.4</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F126" s="4">
         <v>7</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G126" s="3">
         <v>7.7</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H126" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>62.5</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B127" s="2">
         <v>5</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C127" s="3">
         <v>5.4</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D127" s="4">
         <v>5.9</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E127" s="5">
         <v>6.5</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F127" s="4">
         <v>7.1</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G127" s="3">
         <v>7.8</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H127" s="2">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>63</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B128" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C128" s="3">
         <v>5.5</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D128" s="4">
         <v>6</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E128" s="5">
         <v>6.6</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F128" s="4">
         <v>7.3</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G128" s="3">
         <v>8</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H128" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129">
         <v>63.5</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B129" s="2">
         <v>5.2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C129" s="3">
         <v>5.6</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D129" s="4">
         <v>6.2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E129" s="5">
         <v>6.7</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F129" s="4">
         <v>7.4</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G129" s="3">
         <v>8.1</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H129" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130">
         <v>64</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B130" s="2">
         <v>5.3</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C130" s="3">
         <v>5.7</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D130" s="4">
         <v>6.3</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E130" s="5">
         <v>6.9</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F130" s="4">
         <v>7.5</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G130" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H130" s="2">
         <v>9.1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131">
         <v>64.5</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B131" s="2">
         <v>5.4</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C131" s="3">
         <v>5.8</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D131" s="4">
         <v>6.4</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E131" s="5">
         <v>7</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F131" s="4">
         <v>7.6</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G131" s="3">
         <v>8.4</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H131" s="2">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132">
         <v>65</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B132" s="2">
         <v>5.5</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C132" s="3">
         <v>5.9</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D132" s="4">
         <v>6.5</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E132" s="5">
         <v>7.1</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F132" s="4">
         <v>7.8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G132" s="3">
         <v>8.6</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H132" s="2">
         <v>9.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133">
         <v>65.5</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B133" s="2">
         <v>5.5</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C133" s="3">
         <v>6</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D133" s="4">
         <v>6.6</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E133" s="5">
         <v>7.2</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F133" s="4">
         <v>7.9</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G133" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H133" s="2">
         <v>9.6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134">
         <v>66</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B134" s="2">
         <v>5.6</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C134" s="3">
         <v>6.1</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D134" s="4">
         <v>6.7</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E134" s="5">
         <v>7.3</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F134" s="4">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G134" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H134" s="2">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
         <v>66.5</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B135" s="2">
         <v>5.7</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C135" s="3">
         <v>6.2</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D135" s="4">
         <v>6.8</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E135" s="5">
         <v>7.4</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F135" s="4">
         <v>8.1</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G135" s="3">
         <v>9</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H135" s="2">
         <v>9.9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136">
         <v>67</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B136" s="2">
         <v>5.8</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C136" s="3">
         <v>6.3</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D136" s="4">
         <v>6.9</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E136" s="5">
         <v>7.5</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F136" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G136" s="3">
         <v>9.1</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H136" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
         <v>67.5</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B137" s="2">
         <v>5.9</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C137" s="3">
         <v>6.4</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D137" s="4">
         <v>7</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E137" s="5">
         <v>7.6</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F137" s="4">
         <v>8.4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G137" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H137" s="2">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138">
         <v>68</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B138" s="2">
         <v>6</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C138" s="3">
         <v>6.5</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D138" s="4">
         <v>7.1</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E138" s="5">
         <v>7.7</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F138" s="4">
         <v>8.5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G138" s="3">
         <v>9.4</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H138" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139">
         <v>68.5</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B139" s="2">
         <v>6.1</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C139" s="3">
         <v>6.6</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D139" s="4">
         <v>7.2</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E139" s="5">
         <v>7.9</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F139" s="4">
         <v>8.6</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G139" s="3">
         <v>9.5</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H139" s="2">
         <v>10.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140">
         <v>69</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B140" s="2">
         <v>6.1</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C140" s="3">
         <v>6.7</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D140" s="4">
         <v>7.3</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E140" s="5">
         <v>8</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F140" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G140" s="3">
         <v>9.6</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H140" s="2">
         <v>10.6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
         <v>69.5</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B141" s="2">
         <v>6.2</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C141" s="3">
         <v>6.8</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D141" s="4">
         <v>7.4</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E141" s="5">
         <v>8.1</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F141" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G141" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H141" s="2">
         <v>10.7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142">
         <v>70</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B142" s="2">
         <v>6.3</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C142" s="3">
         <v>6.9</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D142" s="4">
         <v>7.5</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E142" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F142" s="4">
         <v>9</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G142" s="3">
         <v>9.9</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H142" s="2">
         <v>10.9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143">
         <v>70.5</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B143" s="2">
         <v>6.4</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C143" s="3">
         <v>6.9</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D143" s="4">
         <v>7.6</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E143" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F143" s="4">
         <v>9.1</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G143" s="3">
         <v>10</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H143" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144">
         <v>71</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B144" s="2">
         <v>6.5</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C144" s="3">
         <v>7</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D144" s="4">
         <v>7.7</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E144" s="5">
         <v>8.4</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F144" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G144" s="3">
         <v>10.1</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H144" s="2">
         <v>11.1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145">
         <v>71.5</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B145" s="2">
         <v>6.5</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C145" s="3">
         <v>7.1</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D145" s="4">
         <v>7.7</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E145" s="5">
         <v>8.5</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F145" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G145" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H145" s="2">
         <v>11.3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146">
         <v>72</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B146" s="2">
         <v>6.6</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C146" s="3">
         <v>7.2</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D146" s="4">
         <v>7.8</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E146" s="5">
         <v>8.6</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F146" s="4">
         <v>9.4</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G146" s="3">
         <v>10.3</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H146" s="2">
         <v>11.4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147">
         <v>72.5</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B147" s="2">
         <v>6.7</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C147" s="3">
         <v>7.3</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D147" s="4">
         <v>7.9</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E147" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F147" s="4">
         <v>9.5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G147" s="3">
         <v>10.5</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H147" s="2">
         <v>11.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148">
         <v>73</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B148" s="2">
         <v>6.8</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C148" s="3">
         <v>7.4</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D148" s="4">
         <v>8</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E148" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F148" s="4">
         <v>9.6</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G148" s="3">
         <v>10.6</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H148" s="2">
         <v>11.7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>73.5</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B149" s="2">
         <v>6.9</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C149" s="3">
         <v>7.4</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D149" s="4">
         <v>8.1</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E149" s="5">
         <v>8.9</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F149" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G149" s="3">
         <v>10.7</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H149" s="2">
         <v>11.8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150">
         <v>74</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B150" s="2">
         <v>6.9</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C150" s="3">
         <v>7.5</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D150" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E150" s="5">
         <v>9</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F150" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G150" s="3">
         <v>10.8</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H150" s="2">
         <v>11.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>74.5</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B151" s="2">
         <v>7</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C151" s="3">
         <v>7.6</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D151" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E151" s="5">
         <v>9.1</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F151" s="4">
         <v>9.9</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G151" s="3">
         <v>10.9</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H151" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>75</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B152" s="2">
         <v>7.1</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C152" s="3">
         <v>7.7</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D152" s="4">
         <v>8.4</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E152" s="5">
         <v>9.1</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F152" s="4">
         <v>10</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G152" s="3">
         <v>11</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H152" s="2">
         <v>12.2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>75.5</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B153" s="2">
         <v>7.1</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C153" s="3">
         <v>7.8</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D153" s="4">
         <v>8.5</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E153" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F153" s="4">
         <v>10.1</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G153" s="3">
         <v>11.1</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H153" s="2">
         <v>12.3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154">
         <v>76</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B154" s="2">
         <v>7.2</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C154" s="3">
         <v>7.8</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D154" s="4">
         <v>8.5</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E154" s="5">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F154" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G154" s="3">
         <v>11.2</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H154" s="2">
         <v>12.4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155">
         <v>76.5</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B155" s="2">
         <v>7.3</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C155" s="3">
         <v>7.9</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D155" s="4">
         <v>8.6</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E155" s="5">
         <v>9.4</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F155" s="4">
         <v>10.3</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G155" s="3">
         <v>11.4</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H155" s="2">
         <v>12.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156">
         <v>77</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B156" s="2">
         <v>7.4</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C156" s="3">
         <v>8</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D156" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E156" s="5">
         <v>9.5</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F156" s="4">
         <v>10.4</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G156" s="3">
         <v>11.5</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H156" s="2">
         <v>12.6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157">
         <v>77.5</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B157" s="2">
         <v>7.4</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C157" s="3">
         <v>8.1</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D157" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E157" s="5">
         <v>9.6</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F157" s="4">
         <v>10.5</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G157" s="3">
         <v>11.6</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H157" s="2">
         <v>12.8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158">
         <v>78</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B158" s="2">
         <v>7.5</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C158" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D158" s="4">
         <v>8.9</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E158" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F158" s="4">
         <v>10.6</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G158" s="3">
         <v>11.7</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H158" s="2">
         <v>12.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159">
         <v>78.5</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B159" s="2">
         <v>7.6</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C159" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D159" s="4">
         <v>9</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E159" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F159" s="4">
         <v>10.7</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G159" s="3">
         <v>11.8</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H159" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160">
         <v>79</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B160" s="2">
         <v>7.7</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C160" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D160" s="4">
         <v>9.1</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E160" s="5">
         <v>9.9</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F160" s="4">
         <v>10.8</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G160" s="3">
         <v>11.9</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H160" s="2">
         <v>13.1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161">
         <v>79.5</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B161" s="2">
         <v>7.7</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C161" s="3">
         <v>8.4</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D161" s="4">
         <v>9.1</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E161" s="5">
         <v>10</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F161" s="4">
         <v>10.9</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G161" s="3">
         <v>12</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H161" s="2">
         <v>13.3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162">
         <v>80</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B162" s="2">
         <v>7.8</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C162" s="3">
         <v>8.5</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D162" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E162" s="5">
         <v>10.1</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F162" s="4">
         <v>11</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G162" s="3">
         <v>12.1</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H162" s="2">
         <v>13.4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163">
         <v>80.5</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B163" s="2">
         <v>7.9</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C163" s="3">
         <v>8.6</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D163" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E163" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F163" s="4">
         <v>11.2</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G163" s="3">
         <v>12.3</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H163" s="2">
         <v>13.5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164">
         <v>81</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B164" s="2">
         <v>8</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C164" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D164" s="4">
         <v>9.4</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E164" s="5">
         <v>10.3</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F164" s="4">
         <v>11.3</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G164" s="3">
         <v>12.4</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H164" s="2">
         <v>13.7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>81.5</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B165" s="2">
         <v>8.1</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C165" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D165" s="4">
         <v>9.5</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E165" s="5">
         <v>10.4</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F165" s="4">
         <v>11.4</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G165" s="3">
         <v>12.5</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H165" s="2">
         <v>13.8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166">
         <v>82</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B166" s="2">
         <v>8.1</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C166" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D166" s="4">
         <v>9.6</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E166" s="5">
         <v>10.5</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F166" s="4">
         <v>11.5</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G166" s="3">
         <v>12.6</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H166" s="2">
         <v>13.9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167">
         <v>82.5</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B167" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C167" s="3">
         <v>8.9</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D167" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E167" s="5">
         <v>10.6</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F167" s="4">
         <v>11.6</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G167" s="3">
         <v>12.8</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H167" s="2">
         <v>14.1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168">
         <v>83</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B168" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C168" s="3">
         <v>9</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D168" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E168" s="5">
         <v>10.7</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F168" s="4">
         <v>11.8</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G168" s="3">
         <v>12.9</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H168" s="2">
         <v>14.2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169">
         <v>83.5</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B169" s="2">
         <v>8.4</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C169" s="3">
         <v>9.1</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D169" s="4">
         <v>9.9</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E169" s="5">
         <v>10.9</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F169" s="4">
         <v>11.9</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G169" s="3">
         <v>13.1</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H169" s="2">
         <v>14.4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170">
         <v>84</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B170" s="2">
         <v>8.5</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C170" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D170" s="4">
         <v>10.1</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E170" s="5">
         <v>11</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F170" s="4">
         <v>12</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G170" s="3">
         <v>13.2</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H170" s="2">
         <v>14.5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171">
         <v>84.5</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B171" s="2">
         <v>8.6</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C171" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D171" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E171" s="5">
         <v>11.1</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F171" s="4">
         <v>12.1</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G171" s="3">
         <v>13.3</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H171" s="2">
         <v>14.7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172">
         <v>85</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B172" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C172" s="3">
         <v>9.4</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D172" s="4">
         <v>10.3</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E172" s="5">
         <v>11.2</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F172" s="4">
         <v>12.3</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G172" s="3">
         <v>13.5</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H172" s="2">
         <v>14.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173">
         <v>85.5</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B173" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C173" s="3">
         <v>9.5</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D173" s="4">
         <v>10.4</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E173" s="5">
         <v>11.3</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F173" s="4">
         <v>12.4</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G173" s="3">
         <v>13.6</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H173" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174">
         <v>86</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B174" s="2">
         <v>8.9</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C174" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D174" s="4">
         <v>10.5</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E174" s="5">
         <v>11.5</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F174" s="4">
         <v>12.6</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G174" s="3">
         <v>13.8</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H174" s="2">
         <v>15.2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175">
         <v>86.5</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B175" s="2">
         <v>9</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C175" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D175" s="4">
         <v>10.6</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E175" s="5">
         <v>11.6</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F175" s="4">
         <v>12.7</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G175" s="3">
         <v>13.9</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H175" s="2">
         <v>15.4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176">
         <v>87</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B176" s="2">
         <v>9.1</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C176" s="3">
         <v>9.9</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D176" s="4">
         <v>10.7</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E176" s="5">
         <v>11.7</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F176" s="4">
         <v>12.8</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G176" s="3">
         <v>14.1</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H176" s="2">
         <v>15.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177">
         <v>87.5</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B177" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C177" s="3">
         <v>10</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D177" s="4">
         <v>10.9</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E177" s="5">
         <v>11.8</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F177" s="4">
         <v>13</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G177" s="3">
         <v>14.2</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H177" s="2">
         <v>15.7</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178">
         <v>88</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B178" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C178" s="3">
         <v>10.1</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D178" s="4">
         <v>11</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E178" s="5">
         <v>12</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F178" s="4">
         <v>13.1</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G178" s="3">
         <v>14.4</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H178" s="2">
         <v>15.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179">
         <v>88.5</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B179" s="2">
         <v>9.4</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C179" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D179" s="4">
         <v>11.1</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E179" s="5">
         <v>12.1</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F179" s="4">
         <v>13.2</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G179" s="3">
         <v>14.5</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H179" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B180" s="2">
         <v>9.5</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C180" s="3">
         <v>10.3</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D180" s="4">
         <v>11.2</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E180" s="5">
         <v>12.2</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F180" s="4">
         <v>13.4</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G180" s="3">
         <v>14.7</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H180" s="2">
         <v>16.2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181">
         <v>89.5</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B181" s="2">
         <v>9.6</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C181" s="3">
         <v>10.4</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D181" s="4">
         <v>11.3</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E181" s="5">
         <v>12.3</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F181" s="4">
         <v>13.5</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G181" s="3">
         <v>14.8</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H181" s="2">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B182" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C182" s="3">
         <v>10.5</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D182" s="4">
         <v>11.4</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E182" s="5">
         <v>12.5</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F182" s="4">
         <v>13.7</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G182" s="3">
         <v>15</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H182" s="2">
         <v>16.5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183">
         <v>90.5</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B183" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C183" s="3">
         <v>10.6</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D183" s="4">
         <v>11.5</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E183" s="5">
         <v>12.6</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F183" s="4">
         <v>13.8</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G183" s="3">
         <v>15.1</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H183" s="2">
         <v>16.7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184">
         <v>91</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B184" s="2">
         <v>9.9</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C184" s="3">
         <v>10.7</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D184" s="4">
         <v>11.7</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E184" s="5">
         <v>12.7</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F184" s="4">
         <v>13.9</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G184" s="3">
         <v>15.3</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H184" s="2">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>91.5</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B185" s="2">
         <v>10</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C185" s="3">
         <v>10.8</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D185" s="4">
         <v>11.8</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E185" s="5">
         <v>12.8</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F185" s="4">
         <v>14.1</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G185" s="3">
         <v>15.5</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H185" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186">
         <v>92</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B186" s="2">
         <v>10.1</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C186" s="3">
         <v>10.9</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D186" s="4">
         <v>11.9</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E186" s="5">
         <v>13</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F186" s="4">
         <v>14.2</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G186" s="3">
         <v>15.6</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H186" s="2">
         <v>17.2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187">
         <v>92.5</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B187" s="2">
         <v>10.1</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C187" s="3">
         <v>11</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D187" s="4">
         <v>12</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E187" s="5">
         <v>13.1</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F187" s="4">
         <v>14.3</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G187" s="3">
         <v>15.8</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H187" s="2">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188">
         <v>93</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B188" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C188" s="3">
         <v>11.1</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D188" s="4">
         <v>12.1</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E188" s="5">
         <v>13.2</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F188" s="4">
         <v>14.5</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G188" s="3">
         <v>15.9</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H188" s="2">
         <v>17.5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189">
         <v>93.5</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B189" s="2">
         <v>10.3</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C189" s="3">
         <v>11.2</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D189" s="4">
         <v>12.2</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E189" s="5">
         <v>13.3</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F189" s="4">
         <v>14.6</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G189" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H189" s="2">
         <v>17.7</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190">
         <v>94</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B190" s="2">
         <v>10.4</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C190" s="3">
         <v>11.3</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D190" s="4">
         <v>12.3</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E190" s="5">
         <v>13.5</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F190" s="4">
         <v>14.7</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G190" s="3">
         <v>16.2</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H190" s="2">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191">
         <v>94.5</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B191" s="2">
         <v>10.5</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C191" s="3">
         <v>11.4</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D191" s="4">
         <v>12.4</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E191" s="5">
         <v>13.6</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F191" s="4">
         <v>14.9</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G191" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H191" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192">
         <v>95</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B192" s="2">
         <v>10.6</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C192" s="3">
         <v>11.5</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D192" s="4">
         <v>12.6</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E192" s="5">
         <v>13.7</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F192" s="4">
         <v>15</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G192" s="3">
         <v>16.5</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H192" s="2">
         <v>18.2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193">
         <v>95.5</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B193" s="2">
         <v>10.7</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C193" s="3">
         <v>11.6</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D193" s="4">
         <v>12.7</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E193" s="5">
         <v>13.8</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F193" s="4">
         <v>15.2</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G193" s="3">
         <v>16.7</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H193" s="2">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194">
         <v>96</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B194" s="2">
         <v>10.8</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C194" s="3">
         <v>11.7</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D194" s="4">
         <v>12.8</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E194" s="5">
         <v>14</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F194" s="4">
         <v>15.3</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G194" s="3">
         <v>16.8</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H194" s="2">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195">
         <v>96.5</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B195" s="2">
         <v>10.9</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C195" s="3">
         <v>11.8</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D195" s="4">
         <v>12.9</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E195" s="5">
         <v>14.1</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F195" s="4">
         <v>15.4</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G195" s="3">
         <v>17</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H195" s="2">
         <v>18.7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196">
         <v>97</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B196" s="2">
         <v>11</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C196" s="3">
         <v>12</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D196" s="4">
         <v>13</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E196" s="5">
         <v>14.2</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F196" s="4">
         <v>15.6</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G196" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H196" s="2">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197">
         <v>97.5</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B197" s="2">
         <v>11.1</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C197" s="3">
         <v>12.1</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D197" s="4">
         <v>13.1</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E197" s="5">
         <v>14.4</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F197" s="4">
         <v>15.7</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G197" s="3">
         <v>17.3</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H197" s="2">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198">
         <v>98</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B198" s="2">
         <v>11.2</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C198" s="3">
         <v>12.2</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D198" s="4">
         <v>13.3</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E198" s="5">
         <v>14.5</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F198" s="4">
         <v>15.9</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G198" s="3">
         <v>17.5</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H198" s="2">
         <v>19.3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199">
         <v>98.5</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B199" s="2">
         <v>11.3</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C199" s="3">
         <v>12.3</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D199" s="4">
         <v>13.4</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E199" s="5">
         <v>14.6</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F199" s="4">
         <v>16</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G199" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H199" s="2">
         <v>19.5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200">
         <v>99</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B200" s="2">
         <v>11.4</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C200" s="3">
         <v>12.4</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D200" s="4">
         <v>13.5</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E200" s="5">
         <v>14.8</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F200" s="4">
         <v>16.2</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G200" s="3">
         <v>17.8</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H200" s="2">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201">
         <v>99.5</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B201" s="2">
         <v>11.5</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C201" s="3">
         <v>12.5</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D201" s="4">
         <v>13.6</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E201" s="5">
         <v>14.9</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F201" s="4">
         <v>16.3</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G201" s="3">
         <v>18</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H201" s="2">
         <v>19.8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202">
         <v>100</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B202" s="2">
         <v>11.6</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C202" s="3">
         <v>12.6</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D202" s="4">
         <v>13.7</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E202" s="5">
         <v>15</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F202" s="4">
         <v>16.5</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G202" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H202" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203">
         <v>100.5</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B203" s="2">
         <v>11.7</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C203" s="3">
         <v>12.7</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D203" s="4">
         <v>13.9</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E203" s="5">
         <v>15.2</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F203" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G203" s="3">
         <v>18.3</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H203" s="2">
         <v>20.2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204">
         <v>101</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B204" s="2">
         <v>11.8</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C204" s="3">
         <v>12.8</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D204" s="4">
         <v>14</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E204" s="5">
         <v>15.3</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F204" s="4">
         <v>16.8</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G204" s="3">
         <v>18.5</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H204" s="2">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205">
         <v>101.5</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B205" s="2">
         <v>11.9</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C205" s="3">
         <v>13</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D205" s="4">
         <v>14.1</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E205" s="5">
         <v>15.5</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F205" s="4">
         <v>17</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G205" s="3">
         <v>18.7</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H205" s="2">
         <v>20.6</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A206">
         <v>102</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B206" s="2">
         <v>12</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C206" s="3">
         <v>13.1</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D206" s="4">
         <v>14.3</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E206" s="5">
         <v>15.6</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F206" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G206" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H206" s="2">
         <v>20.8</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207">
         <v>102.5</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B207" s="2">
         <v>12.1</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C207" s="3">
         <v>13.2</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D207" s="4">
         <v>14.4</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E207" s="5">
         <v>15.8</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F207" s="4">
         <v>17.3</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G207" s="3">
         <v>19</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H207" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208">
         <v>103</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B208" s="2">
         <v>12.3</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C208" s="3">
         <v>13.3</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D208" s="4">
         <v>14.5</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E208" s="5">
         <v>15.9</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F208" s="4">
         <v>17.5</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G208" s="3">
         <v>19.2</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H208" s="2">
         <v>21.3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209">
         <v>103.5</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B209" s="2">
         <v>12.4</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C209" s="3">
         <v>13.5</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D209" s="4">
         <v>14.7</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E209" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F209" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G209" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H209" s="2">
         <v>21.5</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210">
         <v>104</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B210" s="2">
         <v>12.5</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C210" s="3">
         <v>13.6</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D210" s="4">
         <v>14.8</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E210" s="5">
         <v>16.2</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F210" s="4">
         <v>17.8</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G210" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H210" s="2">
         <v>21.7</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211">
         <v>104.5</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B211" s="2">
         <v>12.6</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C211" s="3">
         <v>13.7</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D211" s="4">
         <v>15</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E211" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F211" s="4">
         <v>18</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G211" s="3">
         <v>19.8</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H211" s="2">
         <v>21.9</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212">
         <v>105</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B212" s="2">
         <v>12.7</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C212" s="3">
         <v>13.8</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D212" s="4">
         <v>15.1</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E212" s="5">
         <v>16.5</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F212" s="4">
         <v>18.2</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G212" s="3">
         <v>20</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H212" s="2">
         <v>22.2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213">
         <v>105.5</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B213" s="2">
         <v>12.8</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C213" s="3">
         <v>14</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D213" s="4">
         <v>15.3</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E213" s="5">
         <v>16.7</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F213" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G213" s="3">
         <v>20.2</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H213" s="2">
         <v>22.4</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214">
         <v>106</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B214" s="2">
         <v>13</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C214" s="3">
         <v>14.1</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D214" s="4">
         <v>15.4</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E214" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F214" s="4">
         <v>18.5</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G214" s="3">
         <v>20.5</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H214" s="2">
         <v>22.6</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215">
         <v>106.5</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B215" s="2">
         <v>13.1</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C215" s="3">
         <v>14.3</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D215" s="4">
         <v>15.6</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E215" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="F125" s="4">
+      <c r="F215" s="4">
         <v>18.7</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G215" s="3">
         <v>20.7</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H215" s="2">
         <v>22.9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216">
         <v>107</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B216" s="2">
         <v>13.2</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C216" s="3">
         <v>14.4</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D216" s="4">
         <v>15.7</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E216" s="5">
         <v>17.2</v>
       </c>
-      <c r="F126" s="4">
+      <c r="F216" s="4">
         <v>18.899999999999999</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G216" s="3">
         <v>20.9</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H216" s="2">
         <v>23.1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217">
         <v>107.5</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B217" s="2">
         <v>13.3</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C217" s="3">
         <v>14.5</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D217" s="4">
         <v>15.9</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E217" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="F127" s="4">
+      <c r="F217" s="4">
         <v>19.100000000000001</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G217" s="3">
         <v>21.1</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H217" s="2">
         <v>23.4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218">
         <v>108</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B218" s="2">
         <v>13.5</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C218" s="3">
         <v>14.7</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D218" s="4">
         <v>16</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E218" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="F128" s="4">
+      <c r="F218" s="4">
         <v>19.3</v>
       </c>
-      <c r="G128" s="3">
+      <c r="G218" s="3">
         <v>21.3</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H218" s="2">
         <v>23.6</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219">
         <v>108.5</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B219" s="2">
         <v>13.6</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C219" s="3">
         <v>14.8</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D219" s="4">
         <v>16.2</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E219" s="5">
         <v>17.8</v>
       </c>
-      <c r="F129" s="4">
+      <c r="F219" s="4">
         <v>19.5</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G219" s="3">
         <v>21.6</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H219" s="2">
         <v>23.9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220">
         <v>109</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B220" s="2">
         <v>13.7</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C220" s="3">
         <v>15</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D220" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E220" s="5">
         <v>18</v>
       </c>
-      <c r="F130" s="4">
+      <c r="F220" s="4">
         <v>19.7</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G220" s="3">
         <v>21.8</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H220" s="2">
         <v>24.2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221">
         <v>109.5</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B221" s="2">
         <v>13.9</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C221" s="3">
         <v>15.1</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D221" s="4">
         <v>16.5</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E221" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F221" s="4">
         <v>20</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G221" s="3">
         <v>22</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H221" s="2">
         <v>24.4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222">
         <v>110</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B222" s="2">
         <v>14</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C222" s="3">
         <v>15.3</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D222" s="4">
         <v>16.7</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E222" s="5">
         <v>18.3</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F222" s="4">
         <v>20.2</v>
       </c>
-      <c r="G132" s="3">
+      <c r="G222" s="3">
         <v>22.3</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H222" s="2">
         <v>24.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>